--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_12.xlsx
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006066</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="3">
@@ -738,28 +738,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -893,17 +893,17 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -975,28 +975,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>23.17871577922039</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>126.358590200387</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1224,7 +1224,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>110.0817264605106</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="J10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>145.4467082856156</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1856,16 +1856,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>124.9488863009592</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>90.38893773807641</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -1895,10 +1895,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2044,16 +2044,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>62.4162677022923</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2096,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>82.96396779500076</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,7 +2166,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2175,13 +2175,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>42.45400529437561</v>
       </c>
       <c r="I21" t="n">
-        <v>62.88143347497287</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,22 +2324,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>131.3980055647953</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,19 +2406,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>74.1800667629177</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2473,76 +2473,76 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,25 +2600,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>51.72215467797748</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,13 +2640,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>74.92665808917553</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2795,67 +2795,67 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,16 +2871,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>124.2328476316104</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2928,16 +2928,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>88.64014856619752</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3010,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,19 +3029,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>241.0142888776591</v>
@@ -3105,31 +3105,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>64.2562736035707</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3162,19 +3162,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>49.3111039422953</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,10 +3266,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>57.06684086111776</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3500,31 +3500,31 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>190.3453970742847</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>10.27068583523948</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>70.64856914772007</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3667,52 +3667,52 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3746,67 +3746,67 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.26531605719669</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F41" t="n">
+      <c r="X41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
       <c r="Y41" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>36.89750082124304</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,22 +3867,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>241.0142888776591</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -4022,7 +4022,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>241.0142888776591</v>
@@ -4059,10 +4059,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>24.99743787508056</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4119,10 +4119,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>1.944519418634053</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
         <v>19.28114311021272</v>
@@ -4358,22 +4358,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>223.6192102101089</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C5" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D5" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C5" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4589,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>839.4747818420872</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>611.2511635784762</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>376.0990553467335</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C9" t="n">
-        <v>789.6041262295092</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="D9" t="n">
-        <v>640.669716568258</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>481.4322615628025</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>334.8977035896875</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
         <v>223.7040404982626</v>
@@ -4884,22 +4884,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5075,16 +5075,16 @@
         <v>122.6530896684844</v>
       </c>
       <c r="V11" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W11" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X11" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C12" t="n">
         <v>817.1412885554689</v>
@@ -5121,16 +5121,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O12" t="n">
         <v>712.019119383956</v>
@@ -5142,28 +5142,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="13">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="H14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5300,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U14" t="n">
-        <v>720.6083788665362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V14" t="n">
-        <v>720.6083788665362</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="W14" t="n">
-        <v>477.1596022224361</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="X14" t="n">
-        <v>233.7108255783361</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>781.4136778972854</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>122.6530896684844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C17" t="n">
-        <v>122.6530896684844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D17" t="n">
-        <v>122.6530896684844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="E17" t="n">
-        <v>122.6530896684844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="F17" t="n">
-        <v>122.6530896684844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="G17" t="n">
-        <v>122.6530896684844</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>122.6530896684844</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V17" t="n">
-        <v>122.6530896684844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W17" t="n">
-        <v>122.6530896684844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X17" t="n">
-        <v>122.6530896684844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y17" t="n">
-        <v>122.6530896684844</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="18">
@@ -5604,13 +5604,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5692,13 +5692,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.32787816303323</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C20" t="n">
-        <v>82.32787816303323</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D20" t="n">
-        <v>82.32787816303323</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W20" t="n">
-        <v>569.2254314512334</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X20" t="n">
-        <v>325.7766548071333</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.32787816303323</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="C21" t="n">
-        <v>789.6041262295092</v>
+        <v>587.4175315882752</v>
       </c>
       <c r="D21" t="n">
-        <v>640.669716568258</v>
+        <v>438.4831219270239</v>
       </c>
       <c r="E21" t="n">
-        <v>481.4322615628025</v>
+        <v>438.4831219270239</v>
       </c>
       <c r="F21" t="n">
-        <v>334.8977035896875</v>
+        <v>291.9485639539089</v>
       </c>
       <c r="G21" t="n">
-        <v>196.166878172303</v>
+        <v>153.2177385365244</v>
       </c>
       <c r="H21" t="n">
-        <v>82.7977425798823</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="22">
@@ -5938,19 +5938,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C23" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D23" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6029,10 +6029,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>380.2300195200815</v>
+        <v>152.0064012564706</v>
       </c>
       <c r="C24" t="n">
-        <v>380.2300195200815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>380.2300195200815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>380.2300195200815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>233.6954615469665</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>94.96463612958198</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>94.96463612958198</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
         <v>304.2053859195205</v>
@@ -6099,19 +6099,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X24" t="n">
-        <v>756.2056553051034</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="Y24" t="n">
-        <v>548.4453565401495</v>
+        <v>320.2217382765386</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>911.8125548258105</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>700.6811714053606</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>380.2300195200815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>380.2300195200815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>380.2300195200815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,43 +6312,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X27" t="n">
-        <v>756.2056553051034</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y27" t="n">
-        <v>548.4453565401495</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193.7341723913397</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>304.0063229960828</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.7688679906273</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6543,49 +6543,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V30" t="n">
-        <v>526.7184526376595</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W30" t="n">
-        <v>283.2696759935595</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X30" t="n">
-        <v>193.7341723913397</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y30" t="n">
-        <v>193.7341723913397</v>
+        <v>452.9407326573341</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6810,19 +6810,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>914.2479596093278</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>679.0958513775852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>435.6470747334852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X33" t="n">
-        <v>227.7955745279523</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>77.67854936008709</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>77.67854936008709</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>77.67854936008709</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>77.67854936008709</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>77.67854936008709</v>
       </c>
       <c r="H36" t="n">
         <v>20.03527576299844</v>
@@ -7023,43 +7023,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299844</v>
+        <v>252.1315786412141</v>
       </c>
     </row>
     <row r="37">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>223.6192102101089</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>223.6192102101089</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>223.6192102101089</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>892.6949644523331</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>690.5083698110992</v>
       </c>
       <c r="U39" t="n">
-        <v>689.4702815141908</v>
+        <v>462.2847515474883</v>
       </c>
       <c r="V39" t="n">
-        <v>689.4702815141908</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="W39" t="n">
-        <v>446.0215048700907</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X39" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>518.2486856454962</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C41" t="n">
-        <v>518.2486856454962</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="D41" t="n">
-        <v>518.2486856454962</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E41" t="n">
-        <v>274.7999090013961</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F41" t="n">
-        <v>31.35113235729608</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424092</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X41" t="n">
-        <v>953.9655401424092</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y41" t="n">
-        <v>761.6974622895962</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>380.6929175551172</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>206.2398882739901</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>57.30547861273888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>57.30547861273888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7497,16 +7497,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7515,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>588.4532163200711</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W42" t="n">
-        <v>588.4532163200711</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X42" t="n">
-        <v>588.4532163200711</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y42" t="n">
-        <v>380.6929175551172</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="43">
@@ -7600,10 +7600,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>518.2486856454962</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C44" t="n">
-        <v>518.2486856454962</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D44" t="n">
-        <v>518.2486856454962</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E44" t="n">
-        <v>274.7999090013961</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F44" t="n">
-        <v>31.35113235729608</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I44" t="n">
         <v>31.35113235729608</v>
@@ -7670,28 +7670,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X44" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y44" t="n">
-        <v>518.2486856454962</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>378.9756972971371</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C45" t="n">
-        <v>204.52266801601</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D45" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7752,25 +7752,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>547.1910343172051</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>547.1910343172051</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y45" t="n">
-        <v>547.1910343172051</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="46">
@@ -7831,19 +7831,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
         <v>19.28114311021272</v>
@@ -8058,19 +8058,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N9" t="n">
-        <v>292.5201795090609</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,19 +8769,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>349.0484638974528</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9252,7 +9252,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>244.7225752110828</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9261,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9960,19 +9960,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10437,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>174.6270615612551</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10446,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,19 +10671,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11145,19 +11145,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22598,22 +22598,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>183.9432522271564</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22626,28 +22626,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,22 +22671,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22781,16 +22781,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22829,7 +22829,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22847,7 +22847,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22863,28 +22863,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,22 +22908,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>176.9860129156012</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22951,7 +22951,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>101.1175644243641</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -22981,10 +22981,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23002,7 +23002,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23097,13 +23097,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>21.08647536425178</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -23112,7 +23112,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>27.26179070270005</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -23197,10 +23197,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>44.5329991677731</v>
       </c>
       <c r="J10" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,10 +23218,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23276,10 +23276,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>120.0869518323295</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23337,7 +23337,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>27.26179070270013</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23510,7 +23510,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>259.1400950999471</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23540,28 +23540,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,22 +23619,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23744,16 +23744,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>290.3538512141759</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>120.0869518323295</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23783,10 +23783,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23932,16 +23932,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,7 +23975,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>319.5141023699695</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23984,10 +23984,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>256.5108343207664</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24054,7 +24054,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24063,13 +24063,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>69.78143894212084</v>
       </c>
       <c r="I21" t="n">
-        <v>26.5151993764422</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,7 +24099,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24178,7 +24178,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24212,22 +24212,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,7 +24285,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>41.31049342352048</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24294,19 +24294,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>15.21656608849737</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24339,7 +24339,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="26">
@@ -24461,7 +24461,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24488,25 +24488,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>98.14696326317221</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,13 +24528,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>82.71842236622541</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24683,16 +24683,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>164.3376445463981</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24734,16 +24734,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24759,16 +24759,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>20.83636476177344</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24816,16 +24816,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>117.13283663728</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24898,13 +24898,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="32">
@@ -24917,19 +24917,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>174.9274946967228</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,7 +24968,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24980,7 +24980,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>145.2236497783945</v>
@@ -24993,31 +24993,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>80.81293878981317</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25050,19 +25050,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>176.6302781386795</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25126,7 +25126,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,10 +25154,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25233,7 +25233,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25248,7 +25248,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>55.1686033753787</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25397,22 +25397,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>191.5849729979771</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25448,16 +25448,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25479,7 +25479,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>134.7985265581444</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,28 +25515,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>101.0346019561178</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25634,10 +25634,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25649,7 +25649,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>8.683973297415827</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,13 +25670,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25688,13 +25688,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>195.8925415817687</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,19 +25704,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>108.1717115721409</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,22 +25755,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25840,13 +25840,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25868,10 +25868,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>165.8617568640524</v>
@@ -25883,7 +25883,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>169.9996104372708</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>179.3857036041842</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>145.2236497783945</v>
@@ -25947,10 +25947,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>122.4476276895582</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,7 +25992,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26007,10 +26007,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>203.8284657848434</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26071,7 +26071,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26086,7 +26086,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="C2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="D2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="E2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="F2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="C2" t="n">
+      <c r="G2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="D2" t="n">
+      <c r="H2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="G2" t="n">
-        <v>99696.40351879942</v>
-      </c>
-      <c r="H2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="I2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="J2" t="n">
-        <v>99696.40351879937</v>
-      </c>
       <c r="K2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879933</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879933</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="F4" t="n">
         <v>179.5324977039669</v>
@@ -26448,7 +26448,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="N4" t="n">
         <v>179.5324977039669</v>
@@ -26457,7 +26457,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29533.82927421401</v>
+        <v>-29533.82927421397</v>
       </c>
       <c r="C6" t="n">
-        <v>51235.60225733373</v>
+        <v>51235.60225733371</v>
       </c>
       <c r="D6" t="n">
-        <v>51235.60225733372</v>
+        <v>51235.60225733371</v>
       </c>
       <c r="E6" t="n">
+        <v>84863.2022573337</v>
+      </c>
+      <c r="F6" t="n">
         <v>84863.20225733372</v>
       </c>
-      <c r="F6" t="n">
-        <v>84863.20225733375</v>
-      </c>
       <c r="G6" t="n">
-        <v>84863.20225733377</v>
+        <v>84863.20225733373</v>
       </c>
       <c r="H6" t="n">
-        <v>84863.20225733375</v>
+        <v>84863.20225733372</v>
       </c>
       <c r="I6" t="n">
-        <v>84863.20225733373</v>
+        <v>84863.20225733372</v>
       </c>
       <c r="J6" t="n">
-        <v>21803.25965822751</v>
+        <v>21803.25965822752</v>
       </c>
       <c r="K6" t="n">
-        <v>84863.20225733373</v>
+        <v>84863.2022573337</v>
       </c>
       <c r="L6" t="n">
-        <v>84863.20225733373</v>
+        <v>84863.20225733369</v>
       </c>
       <c r="M6" t="n">
-        <v>84863.20225733373</v>
+        <v>84863.2022573337</v>
       </c>
       <c r="N6" t="n">
-        <v>84863.20225733375</v>
+        <v>84863.20225733372</v>
       </c>
       <c r="O6" t="n">
-        <v>84863.20225733375</v>
+        <v>84863.20225733376</v>
       </c>
       <c r="P6" t="n">
-        <v>84863.20225733376</v>
+        <v>84863.20225733369</v>
       </c>
     </row>
   </sheetData>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34948,7 +34948,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35182,7 +35182,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>161.1784674257276</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>217.7067518141195</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
+        <v>169.9091475161415</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>113.3808631277494</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36680,19 +36680,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,7 +37157,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>43.28534947792182</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37786,7 +37786,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37865,19 +37865,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>507846.9793192721</v>
+        <v>509551.7353335389</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006066</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>11.19305615617957</v>
       </c>
     </row>
     <row r="3">
@@ -756,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>133.186967585368</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -893,26 +895,26 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E5" t="n">
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,25 +1025,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>23.17871577922039</v>
+        <v>139.0495304764021</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1145,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,28 +1177,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>126.358590200387</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1376,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1412,22 +1414,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="V11" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>45.28887413297245</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1497,7 +1499,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>83.72646317855323</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1512,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1549,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1622,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1649,28 +1651,28 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1707,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>7.837102735344149</v>
       </c>
     </row>
     <row r="16">
@@ -1786,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1856,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>124.9488863009592</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -1898,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1944,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -1980,10 +1982,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>95.77809019286802</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2053,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>82.96396779500076</v>
-      </c>
-      <c r="I20" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2157,31 +2159,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>106.4852585205976</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>42.45400529437561</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2290,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2324,67 +2326,67 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,19 +2399,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>131.3980055647953</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>77.63090959923872</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2460,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2564,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2597,19 +2599,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>51.72215467797748</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2618,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -2691,13 +2693,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>131.7659851933074</v>
       </c>
       <c r="W27" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2719,61 +2721,61 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2846,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="V29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2874,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>124.2328476316104</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>200.433572294082</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3071,16 +3073,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3108,25 +3110,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>64.2562736035707</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>143.8263020281278</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3174,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3238,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,73 +3265,73 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="F35" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>212.285385643442</v>
       </c>
       <c r="Y35" t="n">
         <v>241.0142888776591</v>
@@ -3348,25 +3350,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>57.06684086111776</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>62.88143347497289</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3582,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3630,16 +3632,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>70.64856914772007</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>1.577134444412341</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>190.3453970742848</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>3.26531605719669</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>241.0142888776591</v>
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>50.05769526855308</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,10 +3878,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>12.94771755361639</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>241.0142888776591</v>
@@ -3995,10 +3997,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>133.0596528794428</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>1.944519418634053</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4195,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
         <v>19.28114311021272</v>
@@ -4355,25 +4357,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W2" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4416,10 +4418,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>23.90796037760316</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I4" t="n">
-        <v>829.5248650203655</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4547,16 +4549,16 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E5" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F5" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G5" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E5" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F5" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G5" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D6" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E6" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F6" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G6" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,19 +4652,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>839.4747818420872</v>
+        <v>549.0162103259058</v>
       </c>
       <c r="U6" t="n">
-        <v>611.2511635784762</v>
+        <v>549.0162103259058</v>
       </c>
       <c r="V6" t="n">
-        <v>376.0990553467335</v>
+        <v>549.0162103259058</v>
       </c>
       <c r="W6" t="n">
-        <v>132.6502787026334</v>
+        <v>549.0162103259058</v>
       </c>
       <c r="X6" t="n">
-        <v>132.6502787026334</v>
+        <v>341.164710120373</v>
       </c>
       <c r="Y6" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4762,13 +4764,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.6530896684844</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C8" t="n">
-        <v>122.6530896684844</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D8" t="n">
-        <v>122.6530896684844</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E8" t="n">
-        <v>122.6530896684844</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F8" t="n">
-        <v>122.6530896684844</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G8" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W8" t="n">
-        <v>122.6530896684844</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X8" t="n">
-        <v>122.6530896684844</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.6530896684844</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>795.8418184905681</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C9" t="n">
-        <v>795.8418184905681</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4981,31 +4983,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U11" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>862.8876260635219</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
         <v>20.03527576299844</v>
@@ -5121,22 +5123,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5145,25 +5147,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="U12" t="n">
-        <v>862.8876260635219</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="V12" t="n">
-        <v>862.8876260635219</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="W12" t="n">
-        <v>862.8876260635219</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="X12" t="n">
-        <v>862.8876260635219</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y12" t="n">
-        <v>862.8876260635219</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5221,28 +5223,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>812.6742080953335</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T14" t="n">
-        <v>587.3248651012614</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U14" t="n">
-        <v>343.8760884571613</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V14" t="n">
-        <v>100.4273118130612</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W14" t="n">
-        <v>100.4273118130612</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="X14" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y14" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N15" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>956.1408901213997</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5458,28 +5460,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>601.5428246748836</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C17" t="n">
-        <v>601.5428246748836</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D17" t="n">
-        <v>601.5428246748836</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E17" t="n">
-        <v>601.5428246748836</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F17" t="n">
-        <v>601.5428246748836</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U17" t="n">
-        <v>601.5428246748836</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V17" t="n">
-        <v>601.5428246748836</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="W17" t="n">
-        <v>601.5428246748836</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="X17" t="n">
-        <v>601.5428246748836</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y17" t="n">
-        <v>601.5428246748836</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,13 +5603,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5701,10 +5703,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>559.1338160830064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C20" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="G20" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K20" t="n">
         <v>122.2961490211351</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>802.5825927271064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y20" t="n">
-        <v>802.5825927271064</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>761.8705608694022</v>
+        <v>414.6641751762832</v>
       </c>
       <c r="C21" t="n">
-        <v>587.4175315882752</v>
+        <v>240.2111458951562</v>
       </c>
       <c r="D21" t="n">
-        <v>438.4831219270239</v>
+        <v>240.2111458951562</v>
       </c>
       <c r="E21" t="n">
-        <v>438.4831219270239</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F21" t="n">
-        <v>291.9485639539089</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G21" t="n">
-        <v>153.2177385365244</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,19 +5837,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W21" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X21" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y21" t="n">
-        <v>761.8705608694022</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6023,16 +6025,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>152.0064012564706</v>
+        <v>567.6182002269572</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>393.1651709458303</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>244.230761284579</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>244.230761284579</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>97.69620331146396</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6108,10 +6110,10 @@
         <v>735.8335372470253</v>
       </c>
       <c r="X24" t="n">
-        <v>527.9820370414925</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y24" t="n">
-        <v>320.2217382765386</v>
+        <v>735.8335372470253</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>911.8125548258105</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>700.6811714053606</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>231.8830517671884</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>231.8830517671884</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>231.8830517671884</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4543050195419</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V27" t="n">
-        <v>23.90796037760316</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="W27" t="n">
-        <v>20.03527576299844</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
         <v>829.5248650203655</v>
@@ -6421,13 +6423,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6494,19 +6496,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y29" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="V29" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>452.9407326573341</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C30" t="n">
-        <v>452.9407326573341</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D30" t="n">
-        <v>304.0063229960828</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E30" t="n">
-        <v>144.7688679906273</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6549,43 +6551,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>660.701031422288</v>
+        <v>588.181657128899</v>
       </c>
       <c r="V30" t="n">
-        <v>660.701031422288</v>
+        <v>353.0295488971563</v>
       </c>
       <c r="W30" t="n">
-        <v>660.701031422288</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="X30" t="n">
-        <v>660.701031422288</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y30" t="n">
-        <v>452.9407326573341</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>795.8418184905681</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C33" t="n">
-        <v>621.3887892094411</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D33" t="n">
-        <v>472.4543795481899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>313.2169245427344</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6780,19 +6782,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>544.1911885564859</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>544.1911885564859</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>544.1911885564859</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>544.1911885564859</v>
       </c>
       <c r="X33" t="n">
-        <v>964.0571555106362</v>
+        <v>544.1911885564859</v>
       </c>
       <c r="Y33" t="n">
-        <v>964.0571555106362</v>
+        <v>336.430889791532</v>
       </c>
     </row>
     <row r="34">
@@ -6886,13 +6888,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>252.1315786412141</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="C36" t="n">
-        <v>77.67854936008709</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D36" t="n">
-        <v>77.67854936008709</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E36" t="n">
-        <v>77.67854936008709</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F36" t="n">
-        <v>77.67854936008709</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G36" t="n">
-        <v>77.67854936008709</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,10 +7025,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="U36" t="n">
-        <v>487.2836868729568</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="V36" t="n">
-        <v>252.1315786412141</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="W36" t="n">
-        <v>252.1315786412141</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="X36" t="n">
-        <v>252.1315786412141</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="Y36" t="n">
-        <v>252.1315786412141</v>
+        <v>900.5405560409666</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7227,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7254,13 +7256,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>892.6949644523331</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>690.5083698110992</v>
+        <v>789.0467458659391</v>
       </c>
       <c r="U39" t="n">
-        <v>462.2847515474883</v>
+        <v>560.8231276023281</v>
       </c>
       <c r="V39" t="n">
-        <v>227.1326433157456</v>
+        <v>560.8231276023281</v>
       </c>
       <c r="W39" t="n">
-        <v>227.1326433157456</v>
+        <v>560.8231276023281</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="40">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>22.57944215788615</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C41" t="n">
-        <v>22.57944215788615</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D41" t="n">
-        <v>22.57944215788615</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E41" t="n">
-        <v>22.57944215788615</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F41" t="n">
-        <v>22.57944215788615</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G41" t="n">
-        <v>22.57944215788615</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>22.57944215788615</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>22.57944215788615</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>509.4769954460863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>266.0282188019862</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y41" t="n">
-        <v>266.0282188019862</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
         <v>19.28114311021272</v>
@@ -7497,13 +7499,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>728.9050472788936</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="W42" t="n">
-        <v>485.4562706347935</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X42" t="n">
-        <v>277.6047704292607</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y42" t="n">
-        <v>69.84447166430675</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7600,19 +7602,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C44" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7670,28 +7672,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y44" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>342.668582052591</v>
+        <v>500.260318022696</v>
       </c>
       <c r="C45" t="n">
-        <v>168.215552771464</v>
+        <v>325.807288741569</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7737,40 +7739,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X45" t="n">
-        <v>718.6442178376129</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="Y45" t="n">
-        <v>510.883919072659</v>
+        <v>634.6640077999109</v>
       </c>
     </row>
     <row r="46">
@@ -7843,7 +7845,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
         <v>19.28114311021272</v>
@@ -8064,13 +8066,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8298,13 +8300,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>359.8407857361378</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N12" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N15" t="n">
-        <v>301.2508595994748</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9249,16 +9251,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
-        <v>174.6270615612551</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9483,22 +9485,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M21" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9954,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10197,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10671,13 +10673,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N36" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10902,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11145,16 +11147,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11385,16 +11387,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>357.7767872515269</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22595,10 +22597,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22607,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>375.044882499874</v>
       </c>
     </row>
     <row r="3">
@@ -22644,10 +22646,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>40.08552890911985</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189029</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22781,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>320.3175739611883</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22829,7 +22831,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22847,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22884,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,25 +22913,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>176.9860129156012</v>
+        <v>61.11519821841949</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23002,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23033,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>120.0869518323295</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,28 +23065,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23097,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>21.08647536425178</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>153.0645313606844</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,19 +23147,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23197,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>44.5329991677731</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,10 +23223,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23264,10 +23266,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23300,22 +23302,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V11" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>127.4196248553433</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>87.95670792528459</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23400,10 +23402,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23437,10 +23439,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23510,7 +23512,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>259.1400950999471</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23537,28 +23539,28 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>135.4421949581581</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23571,22 +23573,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23595,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>197.8455930419602</v>
       </c>
     </row>
     <row r="16">
@@ -23674,10 +23676,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>290.3538512141759</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>126.0561017912447</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23786,10 +23788,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23832,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23868,10 +23870,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>137.0224969565572</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23941,13 +23943,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23984,10 +23986,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>256.5108343207664</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,31 +24047,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>51.15982193480338</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>69.78143894212084</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,10 +24098,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24114,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24178,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24212,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24263,16 +24265,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>157.445715035027</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24285,19 +24287,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>41.31049342352048</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>59.71260756397191</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24348,10 +24350,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24452,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>98.14696326317221</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24506,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24543,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24579,13 +24581,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>101.0346019561179</v>
       </c>
       <c r="W27" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24607,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24692,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24734,19 +24736,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="30">
@@ -24762,13 +24764,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>20.83636476177344</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24777,7 +24779,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>25.50780978689281</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24892,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24904,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>329.5048015845142</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24959,16 +24961,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24996,25 +24998,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>80.81293878981317</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25041,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>56.33842666669381</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25062,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25126,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>157.445715035027</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>145.2236497783945</v>
@@ -25236,25 +25238,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>55.1686033753787</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.27640067767025</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25318,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25369,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25470,13 +25472,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25518,16 +25520,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>101.0346019561178</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.5875942504093</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>192.3884445891958</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>8.683973297415827</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,13 +25672,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25688,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>128.71681180081</v>
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>116.4754883813142</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25755,7 +25757,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25764,10 +25766,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>219.8528695958089</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>113.6687527430239</v>
@@ -25883,10 +25885,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>169.9996104372708</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,19 +25943,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>33.47353077042456</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>203.8284657848434</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26083,10 +26085,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="C2" t="n">
         <v>99696.40351879934</v>
       </c>
       <c r="D2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="E2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="F2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="G2" t="n">
         <v>99696.40351879934</v>
       </c>
-      <c r="E2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="F2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="G2" t="n">
-        <v>99696.40351879937</v>
-      </c>
       <c r="H2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="I2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="J2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="K2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="L2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="M2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="K2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99696.40351879933</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99696.40351879934</v>
-      </c>
       <c r="N2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="O2" t="n">
         <v>99696.4035187994</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879933</v>
+        <v>99696.40351879937</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26424,7 +26426,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
         <v>179.5324977039669</v>
@@ -26448,7 +26450,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
         <v>179.5324977039669</v>
@@ -26457,7 +26459,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29533.82927421397</v>
+        <v>-29533.82927421398</v>
       </c>
       <c r="C6" t="n">
-        <v>51235.60225733371</v>
+        <v>51235.6022573337</v>
       </c>
       <c r="D6" t="n">
-        <v>51235.60225733371</v>
+        <v>51235.60225733375</v>
       </c>
       <c r="E6" t="n">
+        <v>84863.20225733373</v>
+      </c>
+      <c r="F6" t="n">
+        <v>84863.20225733376</v>
+      </c>
+      <c r="G6" t="n">
         <v>84863.2022573337</v>
       </c>
-      <c r="F6" t="n">
-        <v>84863.20225733372</v>
-      </c>
-      <c r="G6" t="n">
-        <v>84863.20225733373</v>
-      </c>
       <c r="H6" t="n">
-        <v>84863.20225733372</v>
+        <v>84863.20225733375</v>
       </c>
       <c r="I6" t="n">
         <v>84863.20225733372</v>
       </c>
       <c r="J6" t="n">
-        <v>21803.25965822752</v>
+        <v>21803.25965822751</v>
       </c>
       <c r="K6" t="n">
-        <v>84863.2022573337</v>
+        <v>84863.20225733377</v>
       </c>
       <c r="L6" t="n">
-        <v>84863.20225733369</v>
+        <v>84863.20225733377</v>
       </c>
       <c r="M6" t="n">
-        <v>84863.2022573337</v>
+        <v>84863.20225733375</v>
       </c>
       <c r="N6" t="n">
-        <v>84863.20225733372</v>
+        <v>84863.20225733375</v>
       </c>
       <c r="O6" t="n">
         <v>84863.20225733376</v>
       </c>
       <c r="P6" t="n">
-        <v>84863.20225733369</v>
+        <v>84863.20225733373</v>
       </c>
     </row>
   </sheetData>
@@ -34784,13 +34786,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34948,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,13 +35020,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>217.7067518141195</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35422,7 +35424,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N12" t="n">
-        <v>99.8112771299739</v>
-      </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N15" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N18" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36203,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M21" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36917,19 +36919,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37391,13 +37393,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37786,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37865,16 +37867,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N42" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O42" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38105,16 +38107,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>226.4350751681936</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>509551.7353335389</v>
+        <v>407299.4256466022</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006066</v>
       </c>
     </row>
     <row r="9">
@@ -703,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
@@ -727,7 +727,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.19305615617957</v>
+        <v>62.4162677022923</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>69.99226724763527</v>
       </c>
       <c r="I3" t="n">
-        <v>49.31110394229523</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>139.0495304764021</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1274,10 +1274,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.9215464271202032</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>83.72646317855323</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>132.876626399942</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.837102735344149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>95.77809019286802</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>106.4852585205976</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>241.0142888776591</v>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2411,10 +2411,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>77.63090959923872</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>64.29143958270528</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2450,16 +2450,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>220.2131257424249</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2642,19 +2642,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>54.2893343942269</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,22 +2684,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>131.7659851933074</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="D29" t="n">
         <v>241.0142888776591</v>
@@ -2806,61 +2806,61 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2879,19 +2879,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>142.0207091502683</v>
       </c>
       <c r="U30" t="n">
-        <v>200.433572294082</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,26 +3028,26 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
@@ -3073,16 +3073,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3122,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>59.71657046660174</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>143.8263020281278</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3310,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,16 +3347,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -3365,10 +3365,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>62.88143347497289</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>17.98518169690218</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3432,49 +3432,49 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3514,55 +3514,55 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
+        <v>3.26531605719669</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3584,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>65.62035315182224</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1.577134444412341</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>190.3453970742848</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>12.94771755361639</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3912,40 +3912,40 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
     </row>
     <row r="45">
@@ -4055,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>133.0596528794428</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4115,16 +4115,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="46">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4351,28 +4351,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T2" t="n">
-        <v>517.4848137278872</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U2" t="n">
-        <v>517.4848137278872</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V2" t="n">
-        <v>517.4848137278872</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W2" t="n">
-        <v>274.0360370837871</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X2" t="n">
-        <v>30.58726043968704</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="Y2" t="n">
         <v>19.28114311021272</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.84447166430675</v>
+        <v>90.73453560909468</v>
       </c>
       <c r="C3" t="n">
-        <v>69.84447166430675</v>
+        <v>90.73453560909468</v>
       </c>
       <c r="D3" t="n">
-        <v>69.84447166430675</v>
+        <v>90.73453560909468</v>
       </c>
       <c r="E3" t="n">
-        <v>69.84447166430675</v>
+        <v>90.73453560909468</v>
       </c>
       <c r="F3" t="n">
-        <v>69.84447166430675</v>
+        <v>90.73453560909468</v>
       </c>
       <c r="G3" t="n">
-        <v>69.84447166430675</v>
+        <v>90.73453560909468</v>
       </c>
       <c r="H3" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W3" t="n">
-        <v>485.4562706347935</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X3" t="n">
-        <v>277.6047704292607</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y3" t="n">
-        <v>69.84447166430675</v>
+        <v>90.73453560909468</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
         <v>473.4149733950735</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>549.0162103259058</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>549.0162103259058</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>549.0162103259058</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W6" t="n">
-        <v>549.0162103259058</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X6" t="n">
-        <v>341.164710120373</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4764,13 +4764,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="W8" t="n">
-        <v>477.1596022224361</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X8" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23.90796037760316</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>23.90796037760316</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>23.90796037760316</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W9" t="n">
-        <v>23.90796037760316</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X9" t="n">
-        <v>23.90796037760316</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>23.90796037760316</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4983,22 +4983,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C11" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D11" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5074,19 +5074,19 @@
         <v>738.7078125165641</v>
       </c>
       <c r="U11" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V11" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W11" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X11" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y11" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>194.4883050441255</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="C12" t="n">
-        <v>20.03527576299844</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="D12" t="n">
-        <v>20.03527576299844</v>
+        <v>134.3352663323082</v>
       </c>
       <c r="E12" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F12" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H12" t="n">
         <v>20.03527576299844</v>
@@ -5123,49 +5123,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>778.3154410346802</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>778.3154410346802</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>778.3154410346802</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V12" t="n">
-        <v>778.3154410346802</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W12" t="n">
-        <v>778.3154410346802</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X12" t="n">
-        <v>570.4639408291474</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="Y12" t="n">
-        <v>362.7036420641935</v>
+        <v>283.2696759935595</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5217,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5302,28 +5302,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>742.8341567219593</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>742.8341567219593</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V14" t="n">
-        <v>499.3853800778592</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W14" t="n">
-        <v>255.9366034337592</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X14" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>787.9255531013317</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C15" t="n">
-        <v>613.4725238202047</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D15" t="n">
-        <v>464.5381141589534</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E15" t="n">
-        <v>305.3006591534979</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F15" t="n">
-        <v>158.7661011803829</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G15" t="n">
         <v>20.03527576299844</v>
@@ -5363,19 +5363,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M15" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5390,19 +5390,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y15" t="n">
-        <v>956.1408901213997</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5454,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>104.5536560184564</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C17" t="n">
-        <v>104.5536560184564</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D17" t="n">
-        <v>104.5536560184564</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5542,25 +5542,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>348.0024326625565</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>104.5536560184564</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W17" t="n">
-        <v>104.5536560184564</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X17" t="n">
-        <v>104.5536560184564</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y17" t="n">
-        <v>104.5536560184564</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="18">
@@ -5603,7 +5603,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
         <v>473.4149733950735</v>
@@ -5618,22 +5618,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>360.2295980564601</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V18" t="n">
-        <v>263.4840524070985</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X18" t="n">
         <v>20.03527576299844</v>
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="D20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F20" t="n">
+        <v>262.7299197543128</v>
+      </c>
+      <c r="G20" t="n">
         <v>19.28114311021272</v>
       </c>
-      <c r="D20" t="n">
+      <c r="H20" t="n">
         <v>19.28114311021272</v>
       </c>
-      <c r="E20" t="n">
+      <c r="I20" t="n">
         <v>19.28114311021272</v>
       </c>
-      <c r="F20" t="n">
-        <v>19.28114311021275</v>
-      </c>
-      <c r="G20" t="n">
-        <v>19.28114311021275</v>
-      </c>
-      <c r="H20" t="n">
-        <v>19.28114311021275</v>
-      </c>
-      <c r="I20" t="n">
-        <v>19.28114311021275</v>
-      </c>
       <c r="J20" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K20" t="n">
         <v>122.2961490211351</v>
@@ -5791,13 +5791,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>414.6641751762832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>240.2111458951562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>240.2111458951562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5834,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W21" t="n">
-        <v>790.6398109613051</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X21" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>582.8795121963512</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6016,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>567.6182002269572</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="C24" t="n">
-        <v>393.1651709458303</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="D24" t="n">
-        <v>244.230761284579</v>
+        <v>369.4873745640509</v>
       </c>
       <c r="E24" t="n">
-        <v>244.230761284579</v>
+        <v>369.4873745640509</v>
       </c>
       <c r="F24" t="n">
-        <v>97.69620331146396</v>
+        <v>222.9528165909359</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>84.2219911735514</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6083,10 +6083,10 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W24" t="n">
-        <v>735.8335372470253</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X24" t="n">
-        <v>735.8335372470253</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y24" t="n">
-        <v>735.8335372470253</v>
+        <v>518.4217842253022</v>
       </c>
     </row>
     <row r="25">
@@ -6171,10 +6171,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
         <v>19.28114311021272</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F26" t="n">
+        <v>485.167420504237</v>
+      </c>
+      <c r="G26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="G26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6256,22 +6256,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>326.218815629338</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>326.218815629338</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4879902119535</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>74.11885461953283</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6308,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>227.1326433157456</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6493,22 +6493,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>109.5807722530562</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="C30" t="n">
-        <v>109.5807722530562</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="D30" t="n">
-        <v>109.5807722530562</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E30" t="n">
-        <v>109.5807722530562</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F30" t="n">
-        <v>109.5807722530562</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G30" t="n">
-        <v>109.5807722530562</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6551,13 +6551,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>820.6018937426884</v>
       </c>
       <c r="U30" t="n">
-        <v>588.181657128899</v>
+        <v>820.6018937426884</v>
       </c>
       <c r="V30" t="n">
-        <v>353.0295488971563</v>
+        <v>820.6018937426884</v>
       </c>
       <c r="W30" t="n">
-        <v>109.5807722530562</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="X30" t="n">
-        <v>109.5807722530562</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="Y30" t="n">
-        <v>109.5807722530562</v>
+        <v>577.1531170985884</v>
       </c>
     </row>
     <row r="31">
@@ -6654,13 +6654,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>315.6850394389064</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C32" t="n">
-        <v>72.23626279480629</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D32" t="n">
-        <v>72.23626279480629</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>802.5825927271064</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U32" t="n">
-        <v>802.5825927271064</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V32" t="n">
-        <v>802.5825927271064</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W32" t="n">
-        <v>802.5825927271064</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X32" t="n">
-        <v>802.5825927271064</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y32" t="n">
-        <v>559.1338160830064</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>168.215552771464</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="C33" t="n">
-        <v>168.215552771464</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6788,13 +6788,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>544.1911885564859</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>544.1911885564859</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V33" t="n">
-        <v>544.1911885564859</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W33" t="n">
-        <v>544.1911885564859</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X33" t="n">
-        <v>544.1911885564859</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="Y33" t="n">
-        <v>336.430889791532</v>
+        <v>283.2696759935595</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H34" t="n">
         <v>19.28114311021272</v>
@@ -6897,13 +6897,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>467.067986854209</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C35" t="n">
-        <v>467.067986854209</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D35" t="n">
-        <v>467.067986854209</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E35" t="n">
-        <v>223.6192102101089</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X35" t="n">
-        <v>710.516763498309</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y35" t="n">
-        <v>467.067986854209</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>900.5405560409666</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C36" t="n">
-        <v>726.0875267598396</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D36" t="n">
-        <v>577.1531170985884</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E36" t="n">
-        <v>417.9156620931329</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F36" t="n">
-        <v>271.3811041200179</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>900.5405560409666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>900.5405560409666</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>900.5405560409666</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>900.5405560409666</v>
+        <v>570.28636612118</v>
       </c>
       <c r="V36" t="n">
-        <v>900.5405560409666</v>
+        <v>570.28636612118</v>
       </c>
       <c r="W36" t="n">
-        <v>900.5405560409666</v>
+        <v>570.28636612118</v>
       </c>
       <c r="X36" t="n">
-        <v>900.5405560409666</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y36" t="n">
-        <v>900.5405560409666</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7201,25 +7201,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>352.9716273967953</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C39" t="n">
-        <v>178.5185981156682</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7259,46 +7259,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>789.0467458659391</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>560.8231276023281</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>560.8231276023281</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W39" t="n">
-        <v>560.8231276023281</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X39" t="n">
-        <v>352.9716273967953</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y39" t="n">
-        <v>352.9716273967953</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7447,16 +7447,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y41" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>790.6398109613051</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U42" t="n">
-        <v>790.6398109613051</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V42" t="n">
-        <v>777.5613083818946</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W42" t="n">
-        <v>777.5613083818946</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X42" t="n">
-        <v>569.7098081763618</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y42" t="n">
-        <v>361.9495094114078</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7593,28 +7593,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E44" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F44" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E44" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F44" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7678,22 +7678,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X44" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y44" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>500.260318022696</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O45" t="n">
         <v>781.4136778972854</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>634.6640077999109</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>634.6640077999109</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>634.6640077999109</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>634.6640077999109</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7830,19 +7830,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8771,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>197.6503338623806</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,13 +9011,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>312.04082470182</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,10 +9251,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9731,13 +9731,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>185.8815939223662</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -9965,10 +9965,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O27" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10199,16 +10199,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10436,16 +10436,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10907,13 +10907,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>292.5201795090609</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,10 +11387,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22591,22 +22591,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
@@ -22615,7 +22615,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>375.044882499874</v>
+        <v>323.8216709537613</v>
       </c>
     </row>
     <row r="3">
@@ -22643,10 +22643,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>42.24317698886119</v>
       </c>
       <c r="I3" t="n">
-        <v>40.08552890911985</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22679,19 +22679,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22798,10 +22798,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22831,16 +22831,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>156.9351659141304</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22880,13 +22880,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22913,25 +22913,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>61.11519821841949</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23035,7 +23035,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23068,7 +23068,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23077,16 +23077,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>307.3148329761767</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23108,7 +23108,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>153.0645313606844</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,10 +23150,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23162,10 +23162,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23223,10 +23223,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,13 +23266,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>21.14182795086677</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>156.7235340282807</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23354,7 +23354,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>87.95670792528459</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23439,10 +23439,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>282.426111115193</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>135.4421949581581</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,22 +23573,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>108.2910995245859</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23630,19 +23630,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>197.8455930419602</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23676,10 +23676,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,10 +23694,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,13 +23734,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>302.2574731329353</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23752,7 +23752,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>126.0561017912447</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>137.0224969565572</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23971,19 +23971,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24031,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>51.15982193480338</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24065,7 +24065,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24217,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>8.683973297415827</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24265,13 +24265,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>145.2236497783945</v>
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24299,10 +24299,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>59.71260756397191</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>47.94400465379118</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24338,16 +24338,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24411,13 +24411,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24454,13 +24454,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>195.0896117727101</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24496,19 +24496,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24530,19 +24530,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>35.10729845718818</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24572,22 +24572,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>101.0346019561179</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>135.0690668140378</v>
       </c>
       <c r="D29" t="n">
         <v>113.6687527430239</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24733,7 +24733,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24767,19 +24767,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24809,16 +24809,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>58.14401954455326</v>
       </c>
       <c r="U30" t="n">
-        <v>25.50780978689281</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24894,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>329.5048015845142</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>294.5471194344777</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,16 +24961,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25010,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>77.62694669660888</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>56.33842666669381</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25092,7 +25092,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25165,10 +25165,10 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>204.5813593128142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>302.9738112079013</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25198,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25235,16 +25235,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25253,10 +25253,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.27640067767025</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>207.9562003840726</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25298,7 +25298,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25362,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25402,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>194.5906600982693</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>336.2094860585705</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25441,16 +25441,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25472,10 +25472,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>81.82471241281651</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25484,7 +25484,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>198.5875942504093</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>192.3884445891958</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25642,7 +25642,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>219.8528695958089</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,7 +25879,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25918,7 +25918,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>166.0248129136286</v>
       </c>
     </row>
     <row r="45">
@@ -25943,19 +25943,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>33.47353077042456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26003,16 +26003,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="46">
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="C2" t="n">
         <v>99696.40351879934</v>
@@ -26322,37 +26322,37 @@
         <v>99696.40351879939</v>
       </c>
       <c r="E2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="F2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="H2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="I2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="J2" t="n">
         <v>99696.4035187994</v>
       </c>
-      <c r="G2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="I2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>99696.40351879937</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99696.40351879942</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99696.40351879942</v>
       </c>
       <c r="M2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="N2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="O2" t="n">
         <v>99696.40351879939</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99696.4035187994</v>
       </c>
       <c r="P2" t="n">
         <v>99696.40351879937</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29533.82927421398</v>
+        <v>-41751.83989425446</v>
       </c>
       <c r="C6" t="n">
-        <v>51235.6022573337</v>
+        <v>39017.59163729324</v>
       </c>
       <c r="D6" t="n">
-        <v>51235.60225733375</v>
+        <v>39017.59163729328</v>
       </c>
       <c r="E6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729325</v>
       </c>
       <c r="F6" t="n">
-        <v>84863.20225733376</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="G6" t="n">
-        <v>84863.2022573337</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="H6" t="n">
-        <v>84863.20225733375</v>
+        <v>72645.19163729325</v>
       </c>
       <c r="I6" t="n">
-        <v>84863.20225733372</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="J6" t="n">
-        <v>21803.25965822751</v>
+        <v>9585.249038187072</v>
       </c>
       <c r="K6" t="n">
-        <v>84863.20225733377</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="L6" t="n">
-        <v>84863.20225733377</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="M6" t="n">
-        <v>84863.20225733375</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="N6" t="n">
-        <v>84863.20225733375</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="O6" t="n">
-        <v>84863.20225733376</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="P6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729326</v>
       </c>
     </row>
   </sheetData>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35187,7 +35187,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>55.51629994036225</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>169.9067907798017</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35746,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,10 +35971,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>99.81127712997396</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36451,13 +36451,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>43.28534947792182</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,10 +36685,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36919,16 +36919,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37156,16 +37156,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>161.1784674257276</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37642,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
@@ -38107,10 +38107,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
